--- a/data/trans_orig/P33B_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R2-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>124197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105143</v>
+        <v>105325</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143645</v>
+        <v>144499</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2490220985460685</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2108171869926063</v>
+        <v>0.2111817310780446</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2880154040843084</v>
+        <v>0.2897281578552266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>335</v>
@@ -762,19 +762,19 @@
         <v>218637</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198896</v>
+        <v>198039</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241054</v>
+        <v>241736</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3506153527997402</v>
+        <v>0.3506153527997403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3189584070393433</v>
+        <v>0.3175831540569906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3865639171121369</v>
+        <v>0.3876588814053548</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>473</v>
@@ -783,19 +783,19 @@
         <v>342834</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313659</v>
+        <v>312586</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>370681</v>
+        <v>372976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3054690752372077</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2794733973950164</v>
+        <v>0.2785175724114284</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3302810433251238</v>
+        <v>0.3323258843283639</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>374542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355094</v>
+        <v>354240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393596</v>
+        <v>393414</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7509779014539316</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7119845959156917</v>
+        <v>0.7102718421447738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7891828130073939</v>
+        <v>0.7888182689219554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>526</v>
@@ -833,19 +833,19 @@
         <v>404943</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>382526</v>
+        <v>381844</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>424684</v>
+        <v>425541</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6493846472002596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.613436082887863</v>
+        <v>0.6123411185946454</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6810415929606558</v>
+        <v>0.6824168459430092</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>843</v>
@@ -854,19 +854,19 @@
         <v>779486</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>751639</v>
+        <v>749344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>808661</v>
+        <v>809734</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6945309247627923</v>
+        <v>0.6945309247627924</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6697189566748759</v>
+        <v>0.667674115671636</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7205266026049834</v>
+        <v>0.7214824275885712</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>144722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121469</v>
+        <v>122674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164028</v>
+        <v>166765</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1507307832013051</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1265117272162385</v>
+        <v>0.1277671787953844</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1708386106587051</v>
+        <v>0.1736889428124603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>458</v>
@@ -979,19 +979,19 @@
         <v>283731</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>261019</v>
+        <v>261186</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>308032</v>
+        <v>309767</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2542740949467417</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2339193880280135</v>
+        <v>0.234069412418822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2760516605380174</v>
+        <v>0.2776067456933497</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>630</v>
@@ -1000,19 +1000,19 @@
         <v>428454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>397094</v>
+        <v>399945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>465127</v>
+        <v>462489</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2063856545357274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1912796901201953</v>
+        <v>0.1926529409748886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2240511968000249</v>
+        <v>0.2227804021071539</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>815415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>796109</v>
+        <v>793372</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>838668</v>
+        <v>837463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.849269216798695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.829161389341295</v>
+        <v>0.8263110571875398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8734882727837613</v>
+        <v>0.8722328212046156</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1149</v>
@@ -1050,19 +1050,19 @@
         <v>832118</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>807817</v>
+        <v>806082</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>854830</v>
+        <v>854663</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7457259050532582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7239483394619823</v>
+        <v>0.7223932543066505</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7660806119719865</v>
+        <v>0.765930587581178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1887</v>
@@ -1071,19 +1071,19 @@
         <v>1647532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1610859</v>
+        <v>1613497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1678892</v>
+        <v>1676041</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7936143454642726</v>
+        <v>0.7936143454642725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7759488031999752</v>
+        <v>0.7772195978928459</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8087203098798047</v>
+        <v>0.8073470590251111</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>124660</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104830</v>
+        <v>105647</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146646</v>
+        <v>149549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1191233525526647</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1001738561079473</v>
+        <v>0.1009551415091406</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1401329308414817</v>
+        <v>0.1429064280137902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>289</v>
@@ -1196,19 +1196,19 @@
         <v>188549</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>167995</v>
+        <v>168494</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211642</v>
+        <v>211312</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1799746703902061</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1603556787112364</v>
+        <v>0.160831461500002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2020173675977092</v>
+        <v>0.2017029372288294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>435</v>
@@ -1217,19 +1217,19 @@
         <v>313209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>285996</v>
+        <v>282687</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>345438</v>
+        <v>342108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1495658994580494</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1365707940946955</v>
+        <v>0.1349908101119293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.164956026713983</v>
+        <v>0.1633659690917386</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>921819</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>899833</v>
+        <v>896930</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>941649</v>
+        <v>940832</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8808766474473353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8598670691585184</v>
+        <v>0.8570935719862098</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8998261438920528</v>
+        <v>0.8990448584908595</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1227</v>
@@ -1267,19 +1267,19 @@
         <v>859093</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>836000</v>
+        <v>836330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>879647</v>
+        <v>879148</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8200253296097938</v>
+        <v>0.820025329609794</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7979826324022909</v>
+        <v>0.7982970627711706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8396443212887638</v>
+        <v>0.8391685384999981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2110</v>
@@ -1288,19 +1288,19 @@
         <v>1780912</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1748683</v>
+        <v>1752013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1808125</v>
+        <v>1811434</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8504341005419506</v>
+        <v>0.8504341005419507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8350439732860172</v>
+        <v>0.8366340309082616</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.863429205905304</v>
+        <v>0.8650091898880707</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>95683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76230</v>
+        <v>78164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118244</v>
+        <v>118850</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09804277067369835</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07811017094322319</v>
+        <v>0.08009167131849887</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1211604795963173</v>
+        <v>0.1217809609397219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -1413,19 +1413,19 @@
         <v>144575</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125514</v>
+        <v>127058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161522</v>
+        <v>162897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1591790949878012</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1381934079116877</v>
+        <v>0.1398927957491534</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1778385287983151</v>
+        <v>0.1793518882774797</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>312</v>
@@ -1434,19 +1434,19 @@
         <v>240257</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>214588</v>
+        <v>215365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269710</v>
+        <v>267555</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1275129450835231</v>
+        <v>0.127512945083523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1138894786918245</v>
+        <v>0.1143017662006227</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1431445954301395</v>
+        <v>0.1420008551993391</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>880246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>857685</v>
+        <v>857079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>899699</v>
+        <v>897765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9019572293263016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8788395204036827</v>
+        <v>0.8782190390602781</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9218898290567769</v>
+        <v>0.9199083286815012</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1101</v>
@@ -1484,19 +1484,19 @@
         <v>763676</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>746729</v>
+        <v>745354</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>782737</v>
+        <v>781193</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8408209050121987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8221614712016849</v>
+        <v>0.8206481117225205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8618065920883121</v>
+        <v>0.8601072042508467</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1955</v>
@@ -1505,19 +1505,19 @@
         <v>1643923</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1614470</v>
+        <v>1616625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1669592</v>
+        <v>1668815</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8724870549164769</v>
+        <v>0.8724870549164768</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8568554045698605</v>
+        <v>0.857999144800661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8861105213081754</v>
+        <v>0.8856982337993773</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>489262</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>447857</v>
+        <v>449001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>529144</v>
+        <v>530064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.140540711026409</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1286471385767574</v>
+        <v>0.1289757415588911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1519966533461792</v>
+        <v>0.1522610289303106</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1301</v>
@@ -1630,19 +1630,19 @@
         <v>835492</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>794097</v>
+        <v>793915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>880830</v>
+        <v>884023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2260944778736652</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2148925226713582</v>
+        <v>0.2148433261088436</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2383634406217242</v>
+        <v>0.239227676430729</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1850</v>
@@ -1651,19 +1651,19 @@
         <v>1324754</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1265746</v>
+        <v>1261251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1387310</v>
+        <v>1382934</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1845933862545092</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1763711070057173</v>
+        <v>0.1757447858456223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1933100676652581</v>
+        <v>0.1927003281330148</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2992022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2952140</v>
+        <v>2951220</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3033427</v>
+        <v>3032283</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.859459288973591</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8480033466538206</v>
+        <v>0.8477389710696899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8713528614232426</v>
+        <v>0.8710242584411092</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4003</v>
@@ -1701,19 +1701,19 @@
         <v>2859830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2814492</v>
+        <v>2811299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2901225</v>
+        <v>2901407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7739055221263349</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7616365593782758</v>
+        <v>0.7607723235692709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7851074773286421</v>
+        <v>0.7851566738911567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6795</v>
@@ -1722,19 +1722,19 @@
         <v>5851852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5789296</v>
+        <v>5793672</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5910860</v>
+        <v>5915355</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8154066137454907</v>
+        <v>0.8154066137454908</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.806689932334742</v>
+        <v>0.8072996718669854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8236288929942829</v>
+        <v>0.8242552141543779</v>
       </c>
     </row>
     <row r="18">
